--- a/一五耕耘收成.xlsx
+++ b/一五耕耘收成.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="274">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -2717,6 +2717,86 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100概念本</t>
+    <rPh sb="4" eb="5">
+      <t>gai'nian'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500概念本</t>
+    <rPh sb="4" eb="5">
+      <t>gai'nian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里群回复</t>
+    <rPh sb="0" eb="1">
+      <t>jia'li'qun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hui'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身，线代的概念</t>
+    <rPh sb="0" eb="1">
+      <t>jian'shen</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xian'dai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gai'nian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己不能什么事情不花时间，而且也要真的做到早睡才行</t>
+    <rPh sb="0" eb="1">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shen'em</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi'qing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu'hua'shi'jian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>er'qie</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ye'yao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhen'de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zuo'dao</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zao'shui</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>cai'xing</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3151,7 +3231,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3220,6 +3300,9 @@
       <c r="A3" s="3">
         <v>20180102</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="C3" s="3">
         <v>3529</v>
       </c>
@@ -3242,6 +3325,27 @@
     <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>20180103</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3256</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/一五耕耘收成.xlsx
+++ b/一五耕耘收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="278">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -2799,6 +2799,18 @@
       <t>cai'xing</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200金灿荣</t>
+  </si>
+  <si>
+    <t>联系同学</t>
+  </si>
+  <si>
+    <t>读书半本多，整理完自己的毕业所需</t>
+  </si>
+  <si>
+    <t>不能什么事情都做一半，并且要想办法把什么要做的内容尽可能放到自己的环境里面去</t>
   </si>
 </sst>
 </file>
@@ -3231,7 +3243,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3349,8 +3361,29 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>20180104</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3450</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/一五耕耘收成.xlsx
+++ b/一五耕耘收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="284">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -2811,6 +2811,192 @@
   </si>
   <si>
     <t>不能什么事情都做一半，并且要想办法把什么要做的内容尽可能放到自己的环境里面去</t>
+  </si>
+  <si>
+    <t>跟老师互动</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>lao'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hu'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以后去健身路上骑车危险地方要慢，普通地方要快，还要注意自己的安全</t>
+    <rPh sb="0" eb="1">
+      <t>yi'hou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jian'shen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lu'shang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qi'che</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei'xian'di'fang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yao'man</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>pu'tong</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>di'fang</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yao'kuai</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>hai'yao</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>zhu'yi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>de</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>an'quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早去健身并且很认真，看完了追时间的人，仔细整理了自己的文件夹逻辑</t>
+    <rPh sb="0" eb="1">
+      <t>zao'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian'shen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bing'qie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hen'ren'zh'nen</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kan'wan'le</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhui'sh'jian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zi'xi'zheng'li'le</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>de</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>wen'jian'jia</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>luo'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看成甲的书找方法，跟同学聚会成功输出很多话题</t>
+    <rPh sb="0" eb="1">
+      <t>kan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>cheng'jia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhao'fang'fa</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gen'tong'xue'ju'hui</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>cheng'gong'shu'chu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>hen'duo'hua'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道该怎么跟同学输出自己正在做的几件比较大的事情：健身、金融、个人知识积累</t>
+    <rPh sb="0" eb="1">
+      <t>bu'zhi'dao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gai'zen'me</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gen'tong'xue'shu'chu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zheng'zai'zuo'de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ji'jian</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bi'jiao'da'de</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shi'qing</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>jian'shen</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>jin'rong</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ge'ren'zhi'shi</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ji'lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟同学吃饭</t>
+    <rPh sb="0" eb="1">
+      <t>gen'tong'xue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chi'fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3243,7 +3429,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:H5"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3390,10 +3576,46 @@
       <c r="A6" s="3">
         <v>20180105</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3351</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>20180106</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/一五耕耘收成.xlsx
+++ b/一五耕耘收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="285">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -2525,35 +2525,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>背诵输出耕作</t>
-    <rPh sb="0" eb="1">
-      <t>bei'song</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shu'chu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>geng'zuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码输出耕作</t>
-    <rPh sb="0" eb="1">
-      <t>dai'ma</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shu'chu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>geng'yun</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>买书之后就要找一本读透并且写读书笔记，像阳志平老师一样</t>
     <rPh sb="0" eb="1">
       <t>mai'shu</t>
@@ -2995,6 +2966,36 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>chi'fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周耕作</t>
+    <rPh sb="0" eb="1">
+      <t>ben'zhou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>geng'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷打电话</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'dian'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思过耕作</t>
+    <rPh sb="0" eb="1">
+      <t>si'guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>geng'zuo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3425,240 +3426,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>256</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>20180101</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>5779</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
+      <c r="F2" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>20180102</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="C3" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="3">
         <v>3529</v>
       </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
+        <v>266</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>20180103</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3256</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="3">
-        <v>3256</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>20180104</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3450</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="1">
-        <v>3450</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>20180105</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="C6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="3">
         <v>3351</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
       <c r="E6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>20180106</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>3298</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
+        <v>281</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>20180107</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>20180108</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>20180109</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>20180110</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>20180111</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>20180112</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>20180113</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>20180114</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>20180115</v>
       </c>

--- a/一五耕耘收成.xlsx
+++ b/一五耕耘收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="287">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -2970,9 +2970,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本周耕作</t>
-    <rPh sb="0" eb="1">
-      <t>ben'zhou</t>
+    <t>跟修婷打电话</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'dian'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思过耕作</t>
+    <rPh sb="0" eb="1">
+      <t>si'guo</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>geng'zuo</t>
@@ -2980,22 +2990,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跟修婷打电话</t>
+    <t>健身并且读成甲的书</t>
+    <rPh sb="0" eb="1">
+      <t>jian'shen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bing'qie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>du</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cheng'jai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想象居然本周还是没有看完线代的视频，真是太扯了，包括自己还是没有仔细看自己的编程书也真是太扯了，自己学了学习方法和学习的概念赶紧去吧</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ju'ran</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ben'zhou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kan'wan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xian'dai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi'pin</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zhen'shi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>tai'che'le</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>bao'kuo</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>zi'xi</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>kan'zi'ji</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>de</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>bian'cheng</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ye'zhen'shi</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>tai'che'le</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>zi'j</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>xue'le</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>xue'xi'fang'fa</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>he</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>xue'xi</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>de</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>gai'nian</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>gan'jin'qu</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ba</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟父亲打电话</t>
     <rPh sb="0" eb="1">
       <t>gen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fu'qin</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>da'dian'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>思过耕作</t>
-    <rPh sb="0" eb="1">
-      <t>si'guo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>geng'zuo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3426,210 +3548,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>282</v>
+      <c r="B1" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>237</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>20180101</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="3">
+      <c r="C2" s="3">
         <v>5779</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="E2" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G2" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>20180102</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="3">
+      <c r="C3" s="3">
         <v>3529</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="E3" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="G3" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>20180103</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D4" s="3">
+      <c r="C4" s="3">
         <v>3256</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="E4" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G4" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>20180104</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C5" s="1">
         <v>3450</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G5" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>20180105</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D6" s="3">
+      <c r="C6" s="3">
         <v>3351</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>276</v>
+      </c>
       <c r="E6" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="G6" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>20180106</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D7" s="3">
+      <c r="C7" s="3">
         <v>3298</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G7" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>20180107</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3638</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="E8" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>20180108</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>20180109</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>20180110</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>20180111</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>20180112</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>20180113</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>20180114</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>20180115</v>
       </c>
@@ -3932,6 +4064,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/一五耕耘收成.xlsx
+++ b/一五耕耘收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="290">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -3118,6 +3118,87 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>da'dian'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看完成甲的书并且整理之中</t>
+    <rPh sb="0" eb="1">
+      <t>kan'wan'cheng'jia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bing'qie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就该看一些能够落实到字面上的书，自己的行动有所改变才能让自己不断成长</t>
+    <rPh sb="0" eb="1">
+      <t>jiu'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kan'yi'xie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>neng'gou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>luo'shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dao'zi'mian'shang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xing'dong</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>you'suo'gai'bian</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>cai'neng</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>rang'zi'ji</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>bu'duan</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>cheng'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2300大熊</t>
+    <rPh sb="4" eb="5">
+      <t>da'xiong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3552,7 +3633,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3727,8 +3808,20 @@
       <c r="A9" s="3">
         <v>20180108</v>
       </c>
+      <c r="B9" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3968</v>
+      </c>
       <c r="D9" s="3" t="s">
         <v>286</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/一五耕耘收成.xlsx
+++ b/一五耕耘收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="295">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -3199,6 +3199,101 @@
     <t>2300大熊</t>
     <rPh sb="4" eb="5">
       <t>da'xiong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300能力圈</t>
+    <rPh sb="4" eb="5">
+      <t>neng'li'quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟杨玉川打电话</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yang'yu'chuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>da'dian'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以后少听喝酒的人墨迹，但是杨玉川真是个好朋友，一生的，人就是会选择跟自己一样的人做朋友</t>
+    <rPh sb="0" eb="1">
+      <t>yi'hou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shao'ting</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he'jiu'de'ren</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mo'ji</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dan'shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yang'yu'chuan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhen'shi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>hao'peng'you</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yi'sheng'de</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ren'jiu'shi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>gen'zi'ji</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>yi'yang'de'ren</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>zuo'peng'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身并且读书很多</t>
+    <rPh sb="0" eb="1">
+      <t>jian'shen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bing'qie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>du'shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hen'duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0900心理</t>
+    <rPh sb="4" eb="5">
+      <t>xin'li</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3633,7 +3728,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3828,10 +3923,28 @@
       <c r="A10" s="3">
         <v>20180109</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3193</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>20180110</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/一五耕耘收成.xlsx
+++ b/一五耕耘收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="298">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -3294,6 +3294,120 @@
     <t>0900心理</t>
     <rPh sb="4" eb="5">
       <t>xin'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷聊运动</t>
+    <rPh sb="0" eb="1">
+      <t>gen'xiu'ting</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>liao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yun'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成金灿荣最新讲座整理，看完了芒格的第十一讲</t>
+    <rPh sb="0" eb="1">
+      <t>wan'hceng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'can'rong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zui'xin'jiang'zuo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kan'le</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wan'le</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>mang'ge</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>di'shi'yi'jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有做好外祖母原则，但是我想还是可以切香肠一刀一刀断其一指，然后断其指尖，断其一个个指节</t>
+    <rPh sb="0" eb="1">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuo'hao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wai'zu'mu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yuan'ze</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dan'shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>qie'xiang'chang</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>yi'dao'yi'dao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yi'dao</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>yi'zhi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ran'hou</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>duan'qi</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>zhi'jian</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>duan'qi</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>yi'ge'ge</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>zhi'jie</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>jie</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3726,17 +3840,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+    <col min="6" max="6" width="53.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3945,6 +4059,18 @@
       </c>
       <c r="B11" s="3" t="s">
         <v>294</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4138</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
